--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -8,14 +8,15 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Expansion Parameters" r:id="rId5" sheetId="3"/>
-    <sheet name="Expansion" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Expansion Parameters" r:id="rId6" sheetId="4"/>
+    <sheet name="Expansion" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -104,31 +105,34 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>XE9S7</t>
+    <t>LAND</t>
   </si>
   <si>
     <t>Land</t>
   </si>
   <si>
-    <t>XE85L</t>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem</t>
+  </si>
+  <si>
+    <t>215414001</t>
   </si>
   <si>
     <t>Water</t>
   </si>
   <si>
-    <t>XE5XH</t>
+    <t>386679005</t>
   </si>
   <si>
     <t>Air</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -137,12 +141,15 @@
     <t>used-codesystem</t>
   </si>
   <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem|1</t>
+    <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem|0.2.0</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
+    <t>http://snomed.info/sct|http://snomed.info/sct/900000000000207008/version/20241001</t>
+  </si>
+  <si>
     <t>displayLanguage</t>
   </si>
   <si>
@@ -152,7 +159,7 @@
     <t>warning-draft</t>
   </si>
   <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-TransportAccidentType|1</t>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-TransportAccidentType|0.1.2</t>
   </si>
   <si>
     <t>includeDesignations</t>
@@ -180,6 +187,15 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
+  </si>
+  <si>
+    <t>Water transport accident</t>
+  </si>
+  <si>
+    <t>Air and space transport accident</t>
   </si>
 </sst>
 </file>
@@ -452,7 +468,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,31 +499,15 @@
         <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +517,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +582,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>1</v>
@@ -533,23 +590,23 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>43</v>
@@ -557,10 +614,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -568,7 +625,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -576,7 +633,23 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -594,35 +667,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>5</v>
+      </c>
       <c r="D2" t="s" s="2">
         <v>29</v>
       </c>
@@ -630,52 +705,56 @@
         <v>30</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="D3" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,52 +150,37 @@
     <t>http://snomed.info/sct|http://snomed.info/sct/900000000000207008/version/20241001</t>
   </si>
   <si>
-    <t>displayLanguage</t>
-  </si>
-  <si>
-    <t>en-US,en;q=0.9</t>
-  </si>
-  <si>
     <t>warning-draft</t>
   </si>
   <si>
     <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-TransportAccidentType|0.1.2</t>
   </si>
   <si>
-    <t>includeDesignations</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
-  </si>
-  <si>
-    <t>Water transport accident</t>
-  </si>
-  <si>
-    <t>Air and space transport accident</t>
   </si>
 </sst>
 </file>
@@ -574,7 +559,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -625,31 +610,15 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +628,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -667,94 +636,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
+++ b/ValueSet-SILPH-TransportAccidentTypeVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
